--- a/biology/Botanique/Aljos_Farjon/Aljos_Farjon.xlsx
+++ b/biology/Botanique/Aljos_Farjon/Aljos_Farjon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aljos Farjon, né en 1946, est un botaniste néerlandais spécialiste de l'écologie, de l'histoire évolutive et de la taxonomie des gymnospermes. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est l'auteur (ou le coauteur) de 10 livres et de plus de 120 articles publiés dans des revues scientifiques, dont Novon. Il a également participé à l'élaboration de Flora Mesoamericana, un projet de collaboration visant à répertorier et à décrire la flore vasculaire de la Mésoamérique.
 Il vit dans le Middlesex. Entre 1983 et 1993, Farjon a travaillé à l'herbarium d'Utrecht. il sera ensuite engagé par l'Université d'Oxford. Entre 1996 et 2006, il travaille comme chercheur spécialiste des gymnospermes au Jardins botaniques royaux de Kew, où il poursuit encore actuellement ses travaux en tant qu'assistant de recherche honoraire.
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1984: Pines : Drawings and Descriptions of the Genus Pinus. Leiden: E.J. Brill.  (ISBN 90 04 07068 0) (2e editie: Brill Academic Publishers (2005),  (ISBN 9004139168))
 1990: Pinaceae, Drawings and Descriptions of the Genera Abies, Cedrus, Pseudolarix, Keteleeria, Nothotsuga, Tsuga, Cathaya, Pseudotsuga, Larix and Picea. Regnum Vegetabile, Vol. 121. Köningstein : Koeltz Scientific Books.  (ISBN 3 87429 298 3)
